--- a/cn/成绩表_固定合计栏.xlsx
+++ b/cn/成绩表_固定合计栏.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wfc22\Desktop\模板\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\01_SaaSForce\14_開発\説明書\印刷関数説明\模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="105" windowWidth="19320" windowHeight="8055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9900"/>
   </bookViews>
   <sheets>
     <sheet name="成績表" sheetId="1" r:id="rId1"/>
@@ -194,7 +194,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -214,6 +214,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -523,7 +526,7 @@
   <dimension ref="A2:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -531,7 +534,7 @@
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="16.625" customWidth="1"/>
     <col min="3" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="5" max="5" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -568,7 +571,7 @@
       <c r="B6" s="6"/>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="2"/>
+      <c r="E6" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
